--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251009_201150.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251009_201150.xlsx
@@ -5235,7 +5235,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
